--- a/Instances/K0014111_Lumpy_b2_fe0_en_rk0_ll2_l20_HTrue_c10.xlsx
+++ b/Instances/K0014111_Lumpy_b2_fe0_en_rk0_ll2_l20_HTrue_c10.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1874,41 +1874,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1923,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2485,41 +2450,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
